--- a/results/mod3.galtanBYhealth.eff.COMB.xlsx
+++ b/results/mod3.galtanBYhealth.eff.COMB.xlsx
@@ -404,25 +404,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0104187076218949</v>
+        <v>-0.0104095524840879</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0218009322641044</v>
+        <v>0.0218124404384948</v>
       </c>
       <c r="D2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.0531477496889367</v>
+        <v>-0.0531611501584627</v>
       </c>
       <c r="F2" t="n">
-        <v>0.032310334445147</v>
+        <v>0.032342045190287</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.477901930783457</v>
+        <v>-0.477230070309648</v>
       </c>
       <c r="H2" t="n">
-        <v>0.632720007104425</v>
+        <v>0.633198300661967</v>
       </c>
     </row>
     <row r="3">
@@ -430,25 +430,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00694830726995386</v>
+        <v>0.00694160589065334</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0151350103515569</v>
+        <v>0.0151436408920932</v>
       </c>
       <c r="D3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.0227157679247386</v>
+        <v>-0.0227393848526574</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0366123824646464</v>
+        <v>0.0366225966339641</v>
       </c>
       <c r="G3" t="n">
-        <v>0.459088372492529</v>
+        <v>0.458384211572111</v>
       </c>
       <c r="H3" t="n">
-        <v>0.646170706152239</v>
+        <v>0.646676432672005</v>
       </c>
     </row>
   </sheetData>
